--- a/biology/Médecine/Gliomatose_cérébrale/Gliomatose_cérébrale.xlsx
+++ b/biology/Médecine/Gliomatose_cérébrale/Gliomatose_cérébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gliomatose cérébrale ou astroblastome décrit la croissance envahissante de cellules neuroépithéliales qui ont la capacité de se différencier en neurones, en oligodendrocytes et en astrocytes. La majorité des tumeurs cérébrospinales sont d'origine neuroépithéliale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gliomatose cérébrale ou astroblastome décrit la croissance envahissante de cellules neuroépithéliales qui ont la capacité de se différencier en neurones, en oligodendrocytes et en astrocytes. La majorité des tumeurs cérébrospinales sont d'origine neuroépithéliale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1890, le docteur Friedrich Rezek décrit devant l'université de Vienne à l'Institut für Anatomie und Physiologie des Centralnervensystems ce qu'il propose d'appeler « Gliomatosis cerebri diffusa »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1890, le docteur Friedrich Rezek décrit devant l'université de Vienne à l'Institut für Anatomie und Physiologie des Centralnervensystems ce qu'il propose d'appeler « Gliomatosis cerebri diffusa ».
 Jusqu'à l'avènement de l'IRM cérébrale le diagnostic de certitude ne peut être établi que post-mortem.
-Et même avec l'IRM, cela reste difficile[3].
+Et même avec l'IRM, cela reste difficile.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La même affection est décrite sous divers noms[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La même affection est décrite sous divers noms :
 en français
 tumeurs neuro-épithéliales ;
 spongioblastome polaire ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre Weill Cornell pour l'étude de la moelle et du cerveau (Weill Cornell Brain and Spine Center) ouvre en 2014 un registre international de la gliomatose cérébrale, géré par le Children's Brain Tumor Project, où les échantillons peuvent être déposés pour étude génomique[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre Weill Cornell pour l'étude de la moelle et du cerveau (Weill Cornell Brain and Spine Center) ouvre en 2014 un registre international de la gliomatose cérébrale, géré par le Children's Brain Tumor Project, où les échantillons peuvent être déposés pour étude génomique.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conférences de consensus d'anatomopathologistes réunies par l'Organisation mondiale de la santé (OMS) retiennent comme définition d'une gliomatose cérébrale l'infiltration néoplasique diffuse de la glie d'au moins trois lobes cérébraux, impliquant les deux hémisphères ou la matière grise plus profonde[6],[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conférences de consensus d'anatomopathologistes réunies par l'Organisation mondiale de la santé (OMS) retiennent comme définition d'une gliomatose cérébrale l'infiltration néoplasique diffuse de la glie d'au moins trois lobes cérébraux, impliquant les deux hémisphères ou la matière grise plus profonde.
 </t>
         </is>
       </c>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,16 +666,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -663,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,10 +694,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -689,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
+          <t>Gliomatose_cérébrale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,36 +722,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gliomatose_c%C3%A9r%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gliomatose_c%C3%A9r%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
